--- a/data/first_revision_test.xlsx
+++ b/data/first_revision_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4898e5cc837f6cd5/Documents/Bristol/KNIPS/code/KNIPS-Semi-Markov/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="503" documentId="11_AD4DB114E441178AC67DF42F3E16E7F2683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1451DB4F-CF7C-43AF-993B-98FC45C6BEEE}"/>
+  <xr:revisionPtr revIDLastSave="517" documentId="11_AD4DB114E441178AC67DF42F3E16E7F2683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C00149C-15F7-4428-9412-ED03EEC48332}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rcs_first_revision_mean" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="43">
   <si>
     <t>bound1</t>
   </si>
@@ -112,12 +112,6 @@
     <t>rcs3</t>
   </si>
   <si>
-    <t>xb:</t>
-  </si>
-  <si>
-    <t>dxb:</t>
-  </si>
-  <si>
     <t>_rcs1</t>
   </si>
   <si>
@@ -158,16 +152,46 @@
   </si>
   <si>
     <t>_d_rcs3</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>xb1</t>
+  </si>
+  <si>
+    <t>xb2</t>
+  </si>
+  <si>
+    <t>xb3</t>
+  </si>
+  <si>
+    <t>xb4</t>
+  </si>
+  <si>
+    <t>xb5</t>
+  </si>
+  <si>
+    <t>xb6</t>
+  </si>
+  <si>
+    <t>xb7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -718,60 +742,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -779,7 +806,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -790,7 +817,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -804,7 +831,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -821,7 +848,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -841,7 +868,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -864,7 +891,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -898,60 +925,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -959,7 +989,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -970,7 +1000,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -984,7 +1014,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1001,7 +1031,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1021,7 +1051,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1044,7 +1074,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1078,60 +1108,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -1139,7 +1172,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1150,7 +1183,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1164,7 +1197,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1181,7 +1214,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1201,7 +1234,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1224,7 +1257,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1258,60 +1291,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -1319,7 +1355,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1330,7 +1366,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1344,7 +1380,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1361,7 +1397,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1381,7 +1417,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1404,7 +1440,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1437,61 +1473,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916FC4D9-7F7F-4ABB-88CF-874043B3D3E6}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -1499,7 +1538,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1510,7 +1549,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1524,7 +1563,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1541,7 +1580,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1561,7 +1600,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1584,7 +1623,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1609,6 +1648,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1618,7 +1658,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1857,60 +1897,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -1918,7 +1961,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1929,7 +1972,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1943,7 +1986,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -1960,7 +2003,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1980,7 +2023,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2003,7 +2046,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2037,60 +2080,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -2098,7 +2144,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2109,7 +2155,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2123,7 +2169,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2140,7 +2186,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2160,7 +2206,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2183,7 +2229,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2217,60 +2263,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -2278,7 +2327,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2289,7 +2338,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2303,7 +2352,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2320,7 +2369,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2340,7 +2389,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2363,7 +2412,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2397,60 +2446,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -2458,7 +2510,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2469,7 +2521,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2483,7 +2535,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2500,7 +2552,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2520,7 +2572,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2543,7 +2595,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2577,60 +2629,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -2638,7 +2693,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2649,7 +2704,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2663,7 +2718,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2680,7 +2735,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2700,7 +2755,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2723,7 +2778,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2757,60 +2812,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -2818,7 +2876,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2829,7 +2887,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2843,7 +2901,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2860,7 +2918,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2880,7 +2938,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -2903,7 +2961,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
@@ -2937,60 +2995,63 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.0000000000000001E-5</v>
@@ -2998,7 +3059,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -3009,7 +3070,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>9.9999999999999995E-7</v>
@@ -3023,7 +3084,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -3040,7 +3101,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>9.9999999999999995E-7</v>
@@ -3060,7 +3121,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>-9.9999999999999995E-7</v>
@@ -3083,7 +3144,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>9.9999999999999995E-7</v>
